--- a/平成31年度/シースリーカップ/2019 第4回 シースリーカップ組合せ審判割当.xlsx
+++ b/平成31年度/シースリーカップ/2019 第4回 シースリーカップ組合せ審判割当.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wizusb\平成31年度\シースリーカップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1日目" sheetId="1" r:id="rId1"/>
-    <sheet name="2日目" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1日目_07.14" sheetId="4" r:id="rId2"/>
+    <sheet name="2日目" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="99">
   <si>
     <t>栃尾</t>
     <rPh sb="0" eb="2">
@@ -669,13 +670,17 @@
     <rPh sb="0" eb="3">
       <t>カミカワニシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドサン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,14 +1102,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,166 +1279,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1314,7 +1328,7 @@
         <xdr:cNvPr id="2" name="二等辺三角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6D44FE-368C-4737-A7F8-11FA0A0C0C28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF6D44FE-368C-4737-A7F8-11FA0A0C0C28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1398,7 @@
         <xdr:cNvPr id="3" name="二等辺三角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1974B57-792A-40EB-B50A-95FB4349F0D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1974B57-792A-40EB-B50A-95FB4349F0D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1464,7 @@
         <xdr:cNvPr id="4" name="二等辺三角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA11F80B-2EA6-453C-96A1-19AB51B79E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA11F80B-2EA6-453C-96A1-19AB51B79E50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1530,7 @@
         <xdr:cNvPr id="5" name="二等辺三角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762390DD-121F-4A90-BF91-7033C816B97D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{762390DD-121F-4A90-BF91-7033C816B97D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,6 +1540,279 @@
         <a:xfrm>
           <a:off x="3819525" y="2171700"/>
           <a:ext cx="1171575" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="二等辺三角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF6D44FE-368C-4737-A7F8-11FA0A0C0C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009649" y="828675"/>
+          <a:ext cx="1171575" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="二等辺三角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1974B57-792A-40EB-B50A-95FB4349F0D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="3057525"/>
+          <a:ext cx="1171575" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="二等辺三角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA11F80B-2EA6-453C-96A1-19AB51B79E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="3067050"/>
+          <a:ext cx="1171575" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="二等辺三角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{762390DD-121F-4A90-BF91-7033C816B97D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="847725"/>
+          <a:ext cx="1171575" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -1866,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1880,21 +2167,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
@@ -1912,82 +2199,82 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="U3" s="17" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="U3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="E5" s="34"/>
+      <c r="J5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="S5" s="17" t="s">
+      <c r="K5" s="34"/>
+      <c r="S5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="Y5" s="17" t="s">
+      <c r="T5" s="34"/>
+      <c r="Y5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="17"/>
+      <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="V6" s="26" t="s">
+      <c r="H6" s="35"/>
+      <c r="V6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="26"/>
+      <c r="W6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="G8" s="17" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="G8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="K8" s="17" t="s">
+      <c r="H8" s="34"/>
+      <c r="K8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="P8" s="17" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="P8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="V8" s="17" t="s">
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="V8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="17"/>
-      <c r="Z8" s="17" t="s">
+      <c r="W8" s="34"/>
+      <c r="Z8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
@@ -2035,82 +2322,82 @@
     </row>
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="U12" s="17" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="U12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
     </row>
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="J14" s="17" t="s">
+      <c r="E14" s="34"/>
+      <c r="J14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="S14" s="17" t="s">
+      <c r="K14" s="34"/>
+      <c r="S14" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="Y14" s="17" t="s">
+      <c r="T14" s="34"/>
+      <c r="Y14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z14" s="17"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="V15" s="26" t="s">
+      <c r="H15" s="35"/>
+      <c r="V15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="26"/>
+      <c r="W15" s="35"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="G17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="K17" s="17" t="s">
+      <c r="H17" s="34"/>
+      <c r="K17" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="P17" s="17" t="s">
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="P17" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="V17" s="17" t="s">
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="V17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="W17" s="17"/>
-      <c r="Z17" s="17" t="s">
+      <c r="W17" s="34"/>
+      <c r="Z17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -2135,571 +2422,666 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56" t="s">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57" t="s">
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="56" t="s">
+      <c r="Q20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="56" t="s">
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="56" t="s">
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
     </row>
     <row r="21" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="58" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55" t="s">
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="55" t="s">
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55" t="s">
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55" t="s">
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
     </row>
     <row r="22" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="63" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="63" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="63" t="s">
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="63" t="s">
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="63" t="s">
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
     </row>
     <row r="23" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="64" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="65" t="s">
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="65" t="s">
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="65" t="s">
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="65" t="s">
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="65" t="s">
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
     </row>
     <row r="24" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="66" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="66" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="67" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="66" t="s">
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="68" t="s">
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="66" t="s">
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
     </row>
     <row r="25" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="61"/>
-      <c r="D25" s="61" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55" t="s">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55" t="s">
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="55" t="s">
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55" t="s">
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55" t="s">
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
     </row>
     <row r="26" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="70" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55" t="s">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="71" t="s">
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55" t="s">
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55" t="s">
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
     </row>
     <row r="27" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="61"/>
-      <c r="D27" s="73" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55" t="s">
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="55" t="s">
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55" t="s">
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55" t="s">
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
     </row>
     <row r="28" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="75" t="s">
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="74" t="s">
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="75" t="s">
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="63" t="s">
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="63" t="s">
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
     </row>
     <row r="29" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="65" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="65" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="65" t="s">
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="65" t="s">
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="65" t="s">
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="65" t="s">
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
     </row>
     <row r="30" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="66" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="66" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="66" t="s">
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="66" t="s">
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="66" t="s">
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="66" t="s">
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
     </row>
     <row r="31" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="61"/>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="77" t="s">
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="55" t="s">
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55" t="s">
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="77" t="s">
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
     </row>
     <row r="32" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="55" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55" t="s">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="76" t="s">
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55" t="s">
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55" t="s">
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
     </row>
     <row r="33" spans="3:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="61"/>
-      <c r="D33" s="73" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55" t="s">
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="76" t="s">
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55" t="s">
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="77" t="s">
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="77"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="L20:L33"/>
+    <mergeCell ref="T20:T33"/>
+    <mergeCell ref="X20:X33"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="P20:P33"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="E29:G29"/>
     <mergeCell ref="Q33:S33"/>
     <mergeCell ref="U33:W33"/>
     <mergeCell ref="Y33:AA33"/>
@@ -2724,101 +3106,6 @@
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="Q25:S25"/>
     <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="L20:L33"/>
-    <mergeCell ref="T20:T33"/>
-    <mergeCell ref="X20:X33"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="P20:P33"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y14:Z14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,10 +3116,975 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="3.875" customWidth="1"/>
+    <col min="3" max="14" width="2.625" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="16" width="3.375" customWidth="1"/>
+    <col min="17" max="84" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="U3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+    </row>
+    <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="J5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="S5" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="34"/>
+      <c r="Y5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="34"/>
+    </row>
+    <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="V6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="35"/>
+    </row>
+    <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="G8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="K8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="P8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="V8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="34"/>
+      <c r="Z8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+    </row>
+    <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+    </row>
+    <row r="10" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+    </row>
+    <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="U12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+    </row>
+    <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="J14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="S14" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="T14" s="34"/>
+      <c r="Y14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="34"/>
+    </row>
+    <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="V15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="35"/>
+    </row>
+    <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="K17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="P17" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="V17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="34"/>
+      <c r="Z17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+    </row>
+    <row r="20" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+    </row>
+    <row r="22" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+    </row>
+    <row r="23" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+    </row>
+    <row r="24" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+    </row>
+    <row r="25" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+    </row>
+    <row r="26" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+    </row>
+    <row r="27" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="30"/>
+      <c r="D27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+    </row>
+    <row r="28" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+    </row>
+    <row r="29" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+    </row>
+    <row r="30" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+    </row>
+    <row r="31" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+    </row>
+    <row r="32" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+    </row>
+    <row r="33" spans="3:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="30"/>
+      <c r="D33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="119">
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="L20:L33"/>
+    <mergeCell ref="P20:P33"/>
+    <mergeCell ref="T20:T33"/>
+    <mergeCell ref="X20:X33"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="S5:T5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="Q32" sqref="Q32:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2844,20 +4096,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
@@ -2879,20 +4131,20 @@
     </row>
     <row r="4" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F4" s="8"/>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="9"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="39" t="s">
+      <c r="U4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2910,32 +4162,32 @@
       <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="79"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="42"/>
-      <c r="R6" s="41" t="s">
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="79"/>
+      <c r="R6" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="42"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="79"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="41" t="s">
+      <c r="X6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="42"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="79"/>
     </row>
     <row r="7" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D7" s="10"/>
@@ -2978,72 +4230,72 @@
       <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="Q9" s="26" t="s">
+      <c r="N9" s="59"/>
+      <c r="Q9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="26"/>
+      <c r="R9" s="35"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="43" t="s">
+      <c r="U9" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="43"/>
-      <c r="W9" s="26" t="s">
+      <c r="V9" s="59"/>
+      <c r="W9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="26"/>
+      <c r="X9" s="35"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="43" t="s">
+      <c r="AA9" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="43"/>
+      <c r="AB9" s="59"/>
     </row>
     <row r="10" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
     </row>
     <row r="11" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F11" s="10"/>
@@ -3061,20 +4313,20 @@
     </row>
     <row r="12" spans="1:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F12" s="13"/>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="14"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="40" t="s">
+      <c r="U12" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
       <c r="Y12" s="14"/>
     </row>
     <row r="13" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -3087,12 +4339,12 @@
     </row>
     <row r="16" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F16" s="8"/>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:30" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3104,19 +4356,19 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="42"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="79"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="42"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="10"/>
@@ -3141,40 +4393,40 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="26" t="s">
+      <c r="H21" s="59"/>
+      <c r="I21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="43" t="s">
+      <c r="M21" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="43"/>
+      <c r="N21" s="59"/>
     </row>
     <row r="22" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
     </row>
     <row r="23" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F23" s="10"/>
@@ -3186,38 +4438,38 @@
     </row>
     <row r="24" spans="3:30" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F24" s="13"/>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H25" s="7"/>
     </row>
     <row r="27" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="18"/>
+      <c r="L27" s="45"/>
       <c r="M27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="27" t="s">
+      <c r="P27" s="60" t="s">
         <v>79</v>
       </c>
       <c r="Q27" s="3" t="s">
@@ -3225,599 +4477,669 @@
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="18"/>
+      <c r="T27" s="45"/>
       <c r="U27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="18"/>
+      <c r="X27" s="45"/>
       <c r="Y27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="33" t="s">
+      <c r="AB27" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="AC27" s="34"/>
+      <c r="AC27" s="69"/>
       <c r="AD27" s="5"/>
     </row>
     <row r="28" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="21" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18" t="s">
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18" t="s">
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="18" t="s">
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18" t="s">
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18" t="s">
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="36"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="71"/>
       <c r="AD28" s="5"/>
     </row>
     <row r="29" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="31" t="s">
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="31" t="s">
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="19" t="s">
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="19" t="s">
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="19" t="s">
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="36"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="71"/>
       <c r="AD29" s="5"/>
     </row>
     <row r="30" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="25" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="25" t="s">
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="25" t="s">
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="25" t="s">
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="25" t="s">
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="36"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="71"/>
       <c r="AD30" s="5"/>
     </row>
     <row r="31" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="51" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="48" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="48" t="s">
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="20" t="s">
+      <c r="N31" s="56"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="44" t="s">
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="20" t="s">
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="36"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="71"/>
       <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18" t="s">
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="31" t="s">
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="18" t="s">
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18" t="s">
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18" t="s">
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="36"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="71"/>
       <c r="AD32" s="5"/>
     </row>
     <row r="33" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="32" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18" t="s">
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="52" t="s">
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="32" t="s">
+      <c r="N33" s="49"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18" t="s">
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18" t="s">
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="36"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="71"/>
       <c r="AD33" s="5"/>
     </row>
     <row r="34" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="30"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18" t="s">
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18" t="s">
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="18" t="s">
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18" t="s">
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18" t="s">
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="36"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="71"/>
       <c r="AD34" s="5"/>
     </row>
     <row r="35" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="45" t="s">
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="45" t="s">
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="28" t="s">
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="19" t="s">
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="19" t="s">
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="36"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="70"/>
+      <c r="AC35" s="71"/>
       <c r="AD35" s="5"/>
     </row>
     <row r="36" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="25" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="25" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="25" t="s">
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="25" t="s">
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="25" t="s">
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="25" t="s">
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="36"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="70"/>
+      <c r="AC36" s="71"/>
       <c r="AD36" s="5"/>
     </row>
     <row r="37" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="20" t="s">
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="20" t="s">
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="20" t="s">
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="20" t="s">
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="20" t="s">
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="20" t="s">
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="36"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="71"/>
       <c r="AD37" s="5"/>
     </row>
     <row r="38" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="C38" s="61"/>
+      <c r="D38" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="28" t="s">
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="45" t="s">
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="N38" s="46"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="18" t="s">
+      <c r="N38" s="52"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="28" t="s">
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="32" t="s">
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="36"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="71"/>
       <c r="AD38" s="5"/>
     </row>
     <row r="39" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="18" t="s">
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18" t="s">
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18" t="s">
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="32" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18" t="s">
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18" t="s">
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="36"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="71"/>
       <c r="AD39" s="5"/>
     </row>
     <row r="40" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="30"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18" t="s">
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18" t="s">
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="18" t="s">
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18" t="s">
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18" t="s">
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="38"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="73"/>
       <c r="AD40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="AB27:AC40"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="X27:X40"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="U29:W29"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="Q31:S31"/>
@@ -3842,87 +5164,17 @@
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="I35:K35"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="X27:X40"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="AB27:AC40"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3930,7 +5182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/平成31年度/シースリーカップ/2019 第4回 シースリーカップ組合せ審判割当.xlsx
+++ b/平成31年度/シースリーカップ/2019 第4回 シースリーカップ組合せ審判割当.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wizusb\平成31年度\シースリーカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -680,7 +680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1111,87 +1111,174 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,94 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1328,7 @@
         <xdr:cNvPr id="2" name="二等辺三角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF6D44FE-368C-4737-A7F8-11FA0A0C0C28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6D44FE-368C-4737-A7F8-11FA0A0C0C28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1398,7 @@
         <xdr:cNvPr id="3" name="二等辺三角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1974B57-792A-40EB-B50A-95FB4349F0D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1974B57-792A-40EB-B50A-95FB4349F0D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1464,7 @@
         <xdr:cNvPr id="4" name="二等辺三角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA11F80B-2EA6-453C-96A1-19AB51B79E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA11F80B-2EA6-453C-96A1-19AB51B79E50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="5" name="二等辺三角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{762390DD-121F-4A90-BF91-7033C816B97D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762390DD-121F-4A90-BF91-7033C816B97D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1601,7 @@
         <xdr:cNvPr id="2" name="二等辺三角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF6D44FE-368C-4737-A7F8-11FA0A0C0C28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6D44FE-368C-4737-A7F8-11FA0A0C0C28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1671,7 @@
         <xdr:cNvPr id="3" name="二等辺三角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1974B57-792A-40EB-B50A-95FB4349F0D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1974B57-792A-40EB-B50A-95FB4349F0D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1737,7 @@
         <xdr:cNvPr id="4" name="二等辺三角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA11F80B-2EA6-453C-96A1-19AB51B79E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA11F80B-2EA6-453C-96A1-19AB51B79E50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="5" name="二等辺三角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{762390DD-121F-4A90-BF91-7033C816B97D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762390DD-121F-4A90-BF91-7033C816B97D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,21 +2167,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
@@ -2199,82 +2199,82 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="U3" s="34" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="U3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="J5" s="34" t="s">
+      <c r="E5" s="21"/>
+      <c r="J5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="S5" s="34" t="s">
+      <c r="K5" s="21"/>
+      <c r="S5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="Y5" s="34" t="s">
+      <c r="T5" s="21"/>
+      <c r="Y5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="34"/>
+      <c r="Z5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="V6" s="35" t="s">
+      <c r="H6" s="33"/>
+      <c r="V6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="35"/>
+      <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="G8" s="34" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="G8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="K8" s="34" t="s">
+      <c r="H8" s="21"/>
+      <c r="K8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="P8" s="34" t="s">
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="P8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="V8" s="34" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="V8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="Z8" s="34" t="s">
+      <c r="W8" s="21"/>
+      <c r="Z8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
@@ -2322,82 +2322,82 @@
     </row>
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="U12" s="34" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="U12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="J14" s="34" t="s">
+      <c r="E14" s="21"/>
+      <c r="J14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="S14" s="34" t="s">
+      <c r="K14" s="21"/>
+      <c r="S14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="34"/>
-      <c r="Y14" s="34" t="s">
+      <c r="T14" s="21"/>
+      <c r="Y14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Z14" s="34"/>
+      <c r="Z14" s="21"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="V15" s="35" t="s">
+      <c r="H15" s="33"/>
+      <c r="V15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="35"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="G17" s="34" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="G17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="K17" s="34" t="s">
+      <c r="H17" s="21"/>
+      <c r="K17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="P17" s="34" t="s">
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="P17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="V17" s="34" t="s">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="V17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="W17" s="34"/>
-      <c r="Z17" s="34" t="s">
+      <c r="W17" s="21"/>
+      <c r="Z17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -2422,26 +2422,26 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="20" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="23"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="19" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="19" t="s">
         <v>15</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="38" t="s">
+      <c r="P20" s="36" t="s">
         <v>40</v>
       </c>
       <c r="Q20" s="19" t="s">
@@ -2449,13 +2449,13 @@
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="23"/>
+      <c r="T20" s="22"/>
       <c r="U20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
-      <c r="X20" s="23"/>
+      <c r="X20" s="22"/>
       <c r="Y20" s="19" t="s">
         <v>18</v>
       </c>
@@ -2463,159 +2463,159 @@
       <c r="AA20" s="19"/>
     </row>
     <row r="21" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="39" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="23" t="s">
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23" t="s">
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23" t="s">
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
     </row>
     <row r="22" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="25" t="s">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="25" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="25" t="s">
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="25" t="s">
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="25" t="s">
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
     </row>
     <row r="23" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="36" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="27" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="27" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="27" t="s">
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="27" t="s">
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="27" t="s">
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
     </row>
     <row r="24" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="23"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="26" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="42" t="s">
+      <c r="L24" s="22"/>
+      <c r="M24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="38"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="36"/>
       <c r="Q24" s="26" t="s">
         <v>6</v>
       </c>
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="43" t="s">
+      <c r="T24" s="22"/>
+      <c r="U24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="23"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="22"/>
       <c r="Y24" s="26" t="s">
         <v>6</v>
       </c>
@@ -2623,241 +2623,241 @@
       <c r="AA24" s="26"/>
     </row>
     <row r="25" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="23" t="s">
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23" t="s">
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23" t="s">
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
     </row>
     <row r="26" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="22" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23" t="s">
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="28" t="s">
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23" t="s">
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23" t="s">
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
     </row>
     <row r="27" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="30"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="23" t="s">
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23" t="s">
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23" t="s">
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
     </row>
     <row r="28" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="32" t="s">
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="31" t="s">
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="32" t="s">
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="25" t="s">
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="25" t="s">
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
     </row>
     <row r="29" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="27" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="27" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="27" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="27" t="s">
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="27" t="s">
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="27" t="s">
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
     </row>
     <row r="30" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="23"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="26" t="s">
         <v>5</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="26" t="s">
         <v>93</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="38"/>
+      <c r="P30" s="36"/>
       <c r="Q30" s="26" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
-      <c r="T30" s="23"/>
+      <c r="T30" s="22"/>
       <c r="U30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="V30" s="26"/>
       <c r="W30" s="26"/>
-      <c r="X30" s="23"/>
+      <c r="X30" s="22"/>
       <c r="Y30" s="26" t="s">
         <v>11</v>
       </c>
@@ -2865,139 +2865,212 @@
       <c r="AA30" s="26"/>
     </row>
     <row r="31" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="24" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="23" t="s">
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23" t="s">
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="24" t="s">
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
     </row>
     <row r="32" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="23" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23" t="s">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="21" t="s">
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23" t="s">
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23" t="s">
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
     </row>
     <row r="33" spans="3:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="30"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23" t="s">
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="21" t="s">
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23" t="s">
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="24" t="s">
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="L20:L33"/>
+    <mergeCell ref="T20:T33"/>
+    <mergeCell ref="X20:X33"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="P20:P33"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="U31:W31"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="Q31:S31"/>
     <mergeCell ref="Q32:S32"/>
@@ -3022,90 +3095,17 @@
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="U28:W28"/>
     <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="L20:L33"/>
-    <mergeCell ref="T20:T33"/>
-    <mergeCell ref="X20:X33"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="P20:P33"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y14:Z14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3132,21 +3132,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
@@ -3164,82 +3164,82 @@
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="U3" s="34" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="U3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="J5" s="34" t="s">
+      <c r="E5" s="21"/>
+      <c r="J5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="S5" s="34" t="s">
+      <c r="K5" s="21"/>
+      <c r="S5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="Y5" s="34" t="s">
+      <c r="T5" s="21"/>
+      <c r="Y5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="34"/>
+      <c r="Z5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="V6" s="35" t="s">
+      <c r="H6" s="33"/>
+      <c r="V6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="35"/>
+      <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="G8" s="34" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="G8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="K8" s="34" t="s">
+      <c r="H8" s="21"/>
+      <c r="K8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="P8" s="34" t="s">
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="P8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="V8" s="34" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="V8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="Z8" s="34" t="s">
+      <c r="W8" s="21"/>
+      <c r="Z8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
@@ -3287,82 +3287,82 @@
     </row>
     <row r="11" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="U12" s="34" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="U12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="J14" s="34" t="s">
+      <c r="E14" s="21"/>
+      <c r="J14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="S14" s="34" t="s">
+      <c r="K14" s="21"/>
+      <c r="S14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="34"/>
-      <c r="Y14" s="34" t="s">
+      <c r="T14" s="21"/>
+      <c r="Y14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Z14" s="34"/>
+      <c r="Z14" s="21"/>
     </row>
     <row r="15" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="V15" s="35" t="s">
+      <c r="H15" s="33"/>
+      <c r="V15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="35"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="G17" s="34" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="G17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="K17" s="34" t="s">
+      <c r="H17" s="21"/>
+      <c r="K17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="P17" s="34" t="s">
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="P17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="V17" s="34" t="s">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="V17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="W17" s="34"/>
-      <c r="Z17" s="34" t="s">
+      <c r="W17" s="21"/>
+      <c r="Z17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="17"/>
@@ -3387,26 +3387,26 @@
       <c r="AC18" s="17"/>
     </row>
     <row r="20" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="23"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="19" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="19" t="s">
         <v>15</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="38" t="s">
+      <c r="P20" s="36" t="s">
         <v>40</v>
       </c>
       <c r="Q20" s="19" t="s">
@@ -3414,13 +3414,13 @@
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="23"/>
+      <c r="T20" s="22"/>
       <c r="U20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
-      <c r="X20" s="23"/>
+      <c r="X20" s="22"/>
       <c r="Y20" s="19" t="s">
         <v>18</v>
       </c>
@@ -3428,159 +3428,159 @@
       <c r="AA20" s="19"/>
     </row>
     <row r="21" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="39" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="23" t="s">
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23" t="s">
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23" t="s">
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
     </row>
     <row r="22" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="25" t="s">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="25" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="25" t="s">
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="25" t="s">
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="25" t="s">
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
     </row>
     <row r="23" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="36" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="27" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="27" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="27" t="s">
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="27" t="s">
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="27" t="s">
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
     </row>
     <row r="24" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
-      <c r="H24" s="23"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="26" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="42" t="s">
+      <c r="L24" s="22"/>
+      <c r="M24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="38"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="36"/>
       <c r="Q24" s="26" t="s">
         <v>6</v>
       </c>
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="43" t="s">
+      <c r="T24" s="22"/>
+      <c r="U24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="23"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="22"/>
       <c r="Y24" s="26" t="s">
         <v>6</v>
       </c>
@@ -3588,241 +3588,241 @@
       <c r="AA24" s="26"/>
     </row>
     <row r="25" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="23" t="s">
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23" t="s">
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23" t="s">
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
     </row>
     <row r="26" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="22" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23" t="s">
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="28" t="s">
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23" t="s">
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23" t="s">
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
     </row>
     <row r="27" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="30"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="23" t="s">
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23" t="s">
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23" t="s">
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
     </row>
     <row r="28" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="32" t="s">
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="31" t="s">
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="32" t="s">
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="25" t="s">
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="25" t="s">
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
     </row>
     <row r="29" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="27" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="27" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="27" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="27" t="s">
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="27" t="s">
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="27" t="s">
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
     </row>
     <row r="30" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="23"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="26" t="s">
         <v>5</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="26" t="s">
         <v>93</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="38"/>
+      <c r="P30" s="36"/>
       <c r="Q30" s="26" t="s">
         <v>11</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
-      <c r="T30" s="23"/>
+      <c r="T30" s="22"/>
       <c r="U30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="V30" s="26"/>
       <c r="W30" s="26"/>
-      <c r="X30" s="23"/>
+      <c r="X30" s="22"/>
       <c r="Y30" s="26" t="s">
         <v>11</v>
       </c>
@@ -3830,149 +3830,208 @@
       <c r="AA30" s="26"/>
     </row>
     <row r="31" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="24" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="23" t="s">
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23" t="s">
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="24" t="s">
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
     </row>
     <row r="32" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="23" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23" t="s">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="38"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="36"/>
       <c r="Q32" s="80" t="s">
         <v>5</v>
       </c>
       <c r="R32" s="80"/>
       <c r="S32" s="80"/>
-      <c r="T32" s="23"/>
+      <c r="T32" s="22"/>
       <c r="U32" s="80" t="s">
         <v>1</v>
       </c>
       <c r="V32" s="80"/>
       <c r="W32" s="80"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23" t="s">
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
     </row>
     <row r="33" spans="3:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="30"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23" t="s">
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="38"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="36"/>
       <c r="Q33" s="80" t="s">
         <v>5</v>
       </c>
       <c r="R33" s="80"/>
       <c r="S33" s="80"/>
-      <c r="T33" s="23"/>
+      <c r="T33" s="22"/>
       <c r="U33" s="80" t="s">
         <v>98</v>
       </c>
       <c r="V33" s="80"/>
       <c r="W33" s="80"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="24" t="s">
+      <c r="X33" s="22"/>
+      <c r="Y33" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="L20:L33"/>
+    <mergeCell ref="P20:P33"/>
+    <mergeCell ref="T20:T33"/>
+    <mergeCell ref="X20:X33"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="Y26:AA26"/>
     <mergeCell ref="U28:W28"/>
     <mergeCell ref="Y28:AA28"/>
     <mergeCell ref="E29:G29"/>
@@ -3991,86 +4050,27 @@
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="L20:L33"/>
-    <mergeCell ref="P20:P33"/>
-    <mergeCell ref="T20:T33"/>
-    <mergeCell ref="X20:X33"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="U33:W33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4096,20 +4096,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
@@ -4131,20 +4131,20 @@
     </row>
     <row r="4" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F4" s="8"/>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="9"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4162,32 +4162,32 @@
       <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="79"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="57"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="79"/>
-      <c r="R6" s="78" t="s">
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="57"/>
+      <c r="R6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="79"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="57"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="78" t="s">
+      <c r="X6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="79"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="57"/>
     </row>
     <row r="7" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D7" s="10"/>
@@ -4230,72 +4230,72 @@
       <c r="AA8" s="12"/>
     </row>
     <row r="9" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="35" t="s">
+      <c r="H9" s="58"/>
+      <c r="I9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="59"/>
-      <c r="Q9" s="35" t="s">
+      <c r="N9" s="58"/>
+      <c r="Q9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="35"/>
+      <c r="R9" s="33"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="59"/>
-      <c r="W9" s="35" t="s">
+      <c r="V9" s="58"/>
+      <c r="W9" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="35"/>
+      <c r="X9" s="33"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="59" t="s">
+      <c r="AA9" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="59"/>
+      <c r="AB9" s="58"/>
     </row>
     <row r="10" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
     </row>
     <row r="11" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F11" s="10"/>
@@ -4313,20 +4313,20 @@
     </row>
     <row r="12" spans="1:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F12" s="13"/>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="14"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
       <c r="Y12" s="14"/>
     </row>
     <row r="13" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -4339,12 +4339,12 @@
     </row>
     <row r="16" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F16" s="8"/>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:30" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4356,19 +4356,19 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="79"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="57"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="79"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="57"/>
     </row>
     <row r="19" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D19" s="10"/>
@@ -4393,40 +4393,40 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="35" t="s">
+      <c r="H21" s="58"/>
+      <c r="I21" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="35"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="59" t="s">
+      <c r="M21" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="59"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F23" s="10"/>
@@ -4438,38 +4438,38 @@
     </row>
     <row r="24" spans="3:30" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F24" s="13"/>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="3:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H25" s="7"/>
     </row>
     <row r="27" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="45"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="45"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="60" t="s">
+      <c r="P27" s="75" t="s">
         <v>79</v>
       </c>
       <c r="Q27" s="3" t="s">
@@ -4477,588 +4477,680 @@
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="45"/>
+      <c r="T27" s="60"/>
       <c r="U27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="45"/>
+      <c r="X27" s="60"/>
       <c r="Y27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="68" t="s">
+      <c r="AB27" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="AC27" s="69"/>
+      <c r="AC27" s="46"/>
       <c r="AD27" s="5"/>
     </row>
     <row r="28" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="74" t="s">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45" t="s">
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45" t="s">
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="45" t="s">
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45" t="s">
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45" t="s">
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="70"/>
-      <c r="AC28" s="71"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="48"/>
       <c r="AD28" s="5"/>
     </row>
     <row r="29" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="62" t="s">
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="62" t="s">
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="64" t="s">
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="64" t="s">
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="64" t="s">
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="71"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="48"/>
       <c r="AD29" s="5"/>
     </row>
     <row r="30" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="65" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46" t="s">
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="46" t="s">
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="46" t="s">
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="46" t="s">
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="46" t="s">
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="71"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="48"/>
       <c r="AD30" s="5"/>
     </row>
     <row r="31" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="63" t="s">
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="55" t="s">
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="55" t="s">
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="56"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="73"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="67" t="s">
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="58" t="s">
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="70"/>
-      <c r="AC31" s="71"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="48"/>
       <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="61"/>
-      <c r="D32" s="61" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45" t="s">
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="62" t="s">
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="45" t="s">
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45" t="s">
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45" t="s">
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="71"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="48"/>
       <c r="AD32" s="5"/>
     </row>
     <row r="33" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="47" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45" t="s">
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="48" t="s">
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="49"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="47" t="s">
+      <c r="N33" s="78"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45" t="s">
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45" t="s">
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="70"/>
-      <c r="AC33" s="71"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="48"/>
       <c r="AD33" s="5"/>
     </row>
     <row r="34" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="61"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45" t="s">
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45" t="s">
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="45" t="s">
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45" t="s">
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45" t="s">
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="70"/>
-      <c r="AC34" s="71"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="48"/>
       <c r="AD34" s="5"/>
     </row>
     <row r="35" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="51" t="s">
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="51" t="s">
+      <c r="J35" s="67"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="N35" s="52"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="54" t="s">
+      <c r="N35" s="67"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="64" t="s">
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="64" t="s">
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="70"/>
-      <c r="AC35" s="71"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="48"/>
       <c r="AD35" s="5"/>
     </row>
     <row r="36" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="46" t="s">
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="46" t="s">
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="46" t="s">
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="46" t="s">
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="46" t="s">
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="71"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="48"/>
       <c r="AD36" s="5"/>
     </row>
     <row r="37" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="58" t="s">
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="58" t="s">
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="58" t="s">
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="58" t="s">
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="58" t="s">
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="58" t="s">
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="Z37" s="58"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="70"/>
-      <c r="AC37" s="71"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="48"/>
       <c r="AD37" s="5"/>
     </row>
     <row r="38" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="61"/>
-      <c r="D38" s="61" t="s">
+      <c r="C38" s="64"/>
+      <c r="D38" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="54" t="s">
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="51" t="s">
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="45" t="s">
+      <c r="N38" s="67"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="54" t="s">
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="47" t="s">
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="70"/>
-      <c r="AC38" s="71"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="48"/>
       <c r="AD38" s="5"/>
     </row>
     <row r="39" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="45" t="s">
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45" t="s">
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45" t="s">
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="47" t="s">
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45" t="s">
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45" t="s">
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="71"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="48"/>
       <c r="AD39" s="5"/>
     </row>
     <row r="40" spans="3:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="61"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45" t="s">
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45" t="s">
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="45" t="s">
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45" t="s">
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45" t="s">
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="73"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="50"/>
       <c r="AD40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="H27:H40"/>
+    <mergeCell ref="L27:L40"/>
+    <mergeCell ref="P27:P40"/>
+    <mergeCell ref="T27:T40"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="X27:X40"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="Y31:AA31"/>
     <mergeCell ref="AB27:AC40"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="A1:L1"/>
@@ -5083,98 +5175,6 @@
     <mergeCell ref="AA9:AB10"/>
     <mergeCell ref="U36:W36"/>
     <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="X27:X40"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="H27:H40"/>
-    <mergeCell ref="L27:L40"/>
-    <mergeCell ref="P27:P40"/>
-    <mergeCell ref="T27:T40"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
